--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32684.4768304225</v>
+        <v>6504210.889254078</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32684.4768304225</v>
+        <v>6504210.889254078</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3602.932305636362</v>
+        <v>216175.9383381816</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3602.932305636362</v>
+        <v>216175.9383381816</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959141881.8383522</v>
+        <v>39390957.66405436</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8589.408641336839</v>
+        <v>913744.0366950711</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16414.44867465426</v>
+        <v>1700854.686902942</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24239.48870797168</v>
+        <v>2487965.337110815</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32283.06178172011</v>
+        <v>3259915.860441369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40202.49374596052</v>
+        <v>4046785.791772007</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48121.9257102007</v>
+        <v>4833655.723102685</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56041.35767444086</v>
+        <v>5620525.65443336</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63960.78963868104</v>
+        <v>6407395.585764036</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>71909.27602286582</v>
+        <v>7181441.266023961</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79837.81505781329</v>
+        <v>7970123.504425301</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87766.73053578229</v>
+        <v>8757252.137127405</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>95695.55564945869</v>
+        <v>9544362.787335282</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103624.3807631352</v>
+        <v>10331473.43754316</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111543.722363083</v>
+        <v>11118325.38637957</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119778.0892900077</v>
+        <v>11879249.15502074</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>307</v>
@@ -27055,10 +27055,10 @@
         <v>1.150288976216689e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>275.9999999998867</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,10 +27147,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>1.818989403545856e-12</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
